--- a/kairiki.xlsx
+++ b/kairiki.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Fig" sheetId="1" r:id="rId1"/>
     <sheet name="simulate" sheetId="3" r:id="rId2"/>
+    <sheet name="streamline" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>F</t>
     <phoneticPr fontId="1"/>
@@ -56,6 +57,22 @@
   </si>
   <si>
     <t>G</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yn</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -397,11 +414,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472029144"/>
-        <c:axId val="472029536"/>
+        <c:axId val="108570312"/>
+        <c:axId val="108570704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472029144"/>
+        <c:axId val="108570312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,7 +510,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472029536"/>
+        <c:crossAx val="108570704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -501,7 +518,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472029536"/>
+        <c:axId val="108570704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +629,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472029144"/>
+        <c:crossAx val="108570312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -936,11 +953,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="472030320"/>
-        <c:axId val="472030712"/>
+        <c:axId val="108571488"/>
+        <c:axId val="108571880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="472030320"/>
+        <c:axId val="108571488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1049,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472030712"/>
+        <c:crossAx val="108571880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1040,7 +1057,7 @@
         </c:dispUnits>
       </c:valAx>
       <c:valAx>
-        <c:axId val="472030712"/>
+        <c:axId val="108571880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1168,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="472030320"/>
+        <c:crossAx val="108571488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:dispUnits>
@@ -1180,6 +1197,1490 @@
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Phase</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> space</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>streamline!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>streamline!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>streamline!$A$2:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.75999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>streamline!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>streamline!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.5100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.75999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.39000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>streamline!$D$2:$D$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>streamline!$B$2:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.5100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.79</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-2.3099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-2.04</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.4399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.75999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.39000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>streamline!$C$2:$C$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>streamline!$A$22:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.41000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.84000000000000075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.6100000000000012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.8899999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.5599999999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.6900000000000013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>streamline!$C$22:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>streamline!$A$22:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.41000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.84000000000000075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.7599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.2900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-5.6100000000000012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.8899999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.5599999999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.6900000000000013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>streamline!$D$22:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="6"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>streamline!$B$22:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84000000000000075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6100000000000012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8899999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5599999999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6900000000000013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>streamline!$D$22:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-3.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="7"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>streamline!$B$22:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84000000000000075</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7600000000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2900000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6100000000000012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.8899999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5599999999999987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.9600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6900000000000013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>streamline!$C$22:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="294039864"/>
+        <c:axId val="294082064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="294039864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294082064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="294082064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="294039864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1287,6 +2788,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
@@ -2359,6 +3900,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -4625,6 +6682,596 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.63958</cdr:x>
+      <cdr:y>0.47569</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.725</cdr:x>
+      <cdr:y>0.57639</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2924175" y="1304925"/>
+          <a:ext cx="390525" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>b</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31528</cdr:x>
+      <cdr:y>0.47685</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.40069</cdr:x>
+      <cdr:y>0.57755</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1441450" y="1308100"/>
+          <a:ext cx="390525" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-b</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42569</cdr:x>
+      <cdr:y>0.26157</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61875</cdr:x>
+      <cdr:y>0.36227</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1946275" y="717550"/>
+          <a:ext cx="882650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>√</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(2meV/b)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.40694</cdr:x>
+      <cdr:y>0.76505</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.6</cdr:x>
+      <cdr:y>0.86574</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1860550" y="2098675"/>
+          <a:ext cx="882650" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>√</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(2meV/b)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.92569</cdr:x>
+      <cdr:y>0.4838</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98333</cdr:x>
+      <cdr:y>0.58449</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4232275" y="1327150"/>
+          <a:ext cx="263525" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.50278</cdr:x>
+      <cdr:y>0.1088</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.56042</cdr:x>
+      <cdr:y>0.20949</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="テキスト ボックス 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2298700" y="298450"/>
+          <a:ext cx="263525" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>p</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4906,8 +7553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U15" sqref="Q15:U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4962,11 +7609,11 @@
         <v>12000</v>
       </c>
       <c r="H2" s="1">
-        <f>IF(G2&gt;=$D$2,-$A$2*$C$2*$B$2/G2,2*PI()/3*$E$2*$B$2*$A$2*G2^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" ref="H2:H25" si="0">IF(G2&gt;=$D$2,-$A$2*$C$2*$B$2/G2,2*PI()/3*$E$2*$B$2*$A$2*G2^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
         <v>-332146714666.66669</v>
       </c>
       <c r="I2">
-        <f>IF(G2&gt;=$D$2, -$A$2*$B$2*$C$2/G2^2,-4*PI()/3*$E$2*$B$2*$A$2*G2)</f>
+        <f t="shared" ref="I2:I25" si="1">IF(G2&gt;=$D$2, -$A$2*$B$2*$C$2/G2^2,-4*PI()/3*$E$2*$B$2*$A$2*G2)</f>
         <v>-27678892.888888892</v>
       </c>
     </row>
@@ -4975,11 +7622,11 @@
         <v>11500</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&gt;=$D$2,-$A$2*$C$2*$B$2/G3,2*PI()/3*$E$2*$B$2*$A$2*G3^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-346587876173.91309</v>
       </c>
       <c r="I3">
-        <f>IF(G3&gt;=$D$2, -$A$2*$B$2*$C$2/G3^2,-4*PI()/3*$E$2*$B$2*$A$2*G3)</f>
+        <f t="shared" si="1"/>
         <v>-30138076.189035922</v>
       </c>
     </row>
@@ -4988,11 +7635,11 @@
         <v>11000</v>
       </c>
       <c r="H4" s="1">
-        <f>IF(G4&gt;=$D$2,-$A$2*$C$2*$B$2/G4,2*PI()/3*$E$2*$B$2*$A$2*G4^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-362341870545.45459</v>
       </c>
       <c r="I4">
-        <f>IF(G4&gt;=$D$2, -$A$2*$B$2*$C$2/G4^2,-4*PI()/3*$E$2*$B$2*$A$2*G4)</f>
+        <f t="shared" si="1"/>
         <v>-32940170.04958678</v>
       </c>
     </row>
@@ -5001,11 +7648,11 @@
         <v>10500</v>
       </c>
       <c r="H5" s="1">
-        <f>IF(G5&gt;=$D$2,-$A$2*$C$2*$B$2/G5,2*PI()/3*$E$2*$B$2*$A$2*G5^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-379596245333.33337</v>
       </c>
       <c r="I5">
-        <f>IF(G5&gt;=$D$2, -$A$2*$B$2*$C$2/G5^2,-4*PI()/3*$E$2*$B$2*$A$2*G5)</f>
+        <f t="shared" si="1"/>
         <v>-36152023.365079373</v>
       </c>
     </row>
@@ -5014,11 +7661,11 @@
         <v>10000</v>
       </c>
       <c r="H6" s="1">
-        <f>IF(G6&gt;=$D$2,-$A$2*$C$2*$B$2/G6,2*PI()/3*$E$2*$B$2*$A$2*G6^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-398576057600.00006</v>
       </c>
       <c r="I6">
-        <f>IF(G6&gt;=$D$2, -$A$2*$B$2*$C$2/G6^2,-4*PI()/3*$E$2*$B$2*$A$2*G6)</f>
+        <f t="shared" si="1"/>
         <v>-39857605.760000005</v>
       </c>
     </row>
@@ -5027,11 +7674,11 @@
         <v>9500</v>
       </c>
       <c r="H7" s="1">
-        <f>IF(G7&gt;=$D$2,-$A$2*$C$2*$B$2/G7,2*PI()/3*$E$2*$B$2*$A$2*G7^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-419553744842.10529</v>
       </c>
       <c r="I7">
-        <f>IF(G7&gt;=$D$2, -$A$2*$B$2*$C$2/G7^2,-4*PI()/3*$E$2*$B$2*$A$2*G7)</f>
+        <f t="shared" si="1"/>
         <v>-44163552.088642664</v>
       </c>
     </row>
@@ -5040,11 +7687,11 @@
         <v>9000</v>
       </c>
       <c r="H8" s="1">
-        <f>IF(G8&gt;=$D$2,-$A$2*$C$2*$B$2/G8,2*PI()/3*$E$2*$B$2*$A$2*G8^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-442862286222.22229</v>
       </c>
       <c r="I8">
-        <f>IF(G8&gt;=$D$2, -$A$2*$B$2*$C$2/G8^2,-4*PI()/3*$E$2*$B$2*$A$2*G8)</f>
+        <f t="shared" si="1"/>
         <v>-49206920.69135803</v>
       </c>
     </row>
@@ -5053,11 +7700,11 @@
         <v>8500</v>
       </c>
       <c r="H9" s="1">
-        <f>IF(G9&gt;=$D$2,-$A$2*$C$2*$B$2/G9,2*PI()/3*$E$2*$B$2*$A$2*G9^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-468913008941.17651</v>
       </c>
       <c r="I9">
-        <f>IF(G9&gt;=$D$2, -$A$2*$B$2*$C$2/G9^2,-4*PI()/3*$E$2*$B$2*$A$2*G9)</f>
+        <f t="shared" si="1"/>
         <v>-55166236.346020766</v>
       </c>
     </row>
@@ -5066,11 +7713,11 @@
         <v>8000</v>
       </c>
       <c r="H10" s="1">
-        <f>IF(G10&gt;=$D$2,-$A$2*$C$2*$B$2/G10,2*PI()/3*$E$2*$B$2*$A$2*G10^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-498220072000.00006</v>
       </c>
       <c r="I10">
-        <f>IF(G10&gt;=$D$2, -$A$2*$B$2*$C$2/G10^2,-4*PI()/3*$E$2*$B$2*$A$2*G10)</f>
+        <f t="shared" si="1"/>
         <v>-62277509.000000007</v>
       </c>
     </row>
@@ -5079,11 +7726,11 @@
         <v>7500</v>
       </c>
       <c r="H11" s="1">
-        <f>IF(G11&gt;=$D$2,-$A$2*$C$2*$B$2/G11,2*PI()/3*$E$2*$B$2*$A$2*G11^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-531434743466.66675</v>
       </c>
       <c r="I11">
-        <f>IF(G11&gt;=$D$2, -$A$2*$B$2*$C$2/G11^2,-4*PI()/3*$E$2*$B$2*$A$2*G11)</f>
+        <f t="shared" si="1"/>
         <v>-70857965.795555562</v>
       </c>
     </row>
@@ -5092,11 +7739,11 @@
         <v>7000</v>
       </c>
       <c r="H12" s="1">
-        <f>IF(G12&gt;=$D$2,-$A$2*$C$2*$B$2/G12,2*PI()/3*$E$2*$B$2*$A$2*G12^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-569394368000.00012</v>
       </c>
       <c r="I12">
-        <f>IF(G12&gt;=$D$2, -$A$2*$B$2*$C$2/G12^2,-4*PI()/3*$E$2*$B$2*$A$2*G12)</f>
+        <f t="shared" si="1"/>
         <v>-81342052.571428582</v>
       </c>
     </row>
@@ -5105,11 +7752,11 @@
         <v>6500</v>
       </c>
       <c r="H13" s="1">
-        <f>IF(G13&gt;=$D$2,-$A$2*$C$2*$B$2/G13,2*PI()/3*$E$2*$B$2*$A$2*G13^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-613193934769.23083</v>
       </c>
       <c r="I13">
-        <f>IF(G13&gt;=$D$2, -$A$2*$B$2*$C$2/G13^2,-4*PI()/3*$E$2*$B$2*$A$2*G13)</f>
+        <f t="shared" si="1"/>
         <v>-94337528.426035509</v>
       </c>
     </row>
@@ -5118,11 +7765,11 @@
         <v>6000</v>
       </c>
       <c r="H14" s="1">
-        <f>IF(G14&gt;=$D$2,-$A$2*$C$2*$B$2/G14,2*PI()/3*$E$2*$B$2*$A$2*G14^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-660980051987.05225</v>
       </c>
       <c r="I14">
-        <f>IF(G14&gt;=$D$2, -$A$2*$B$2*$C$2/G14^2,-4*PI()/3*$E$2*$B$2*$A$2*G14)</f>
+        <f t="shared" si="1"/>
         <v>-92478258.399544388</v>
       </c>
     </row>
@@ -5131,11 +7778,11 @@
         <v>5500</v>
       </c>
       <c r="H15" s="1">
-        <f>IF(G15&gt;=$D$2,-$A$2*$C$2*$B$2/G15,2*PI()/3*$E$2*$B$2*$A$2*G15^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-705292550803.50061</v>
       </c>
       <c r="I15">
-        <f>IF(G15&gt;=$D$2, -$A$2*$B$2*$C$2/G15^2,-4*PI()/3*$E$2*$B$2*$A$2*G15)</f>
+        <f t="shared" si="1"/>
         <v>-84771736.866249025</v>
       </c>
     </row>
@@ -5144,11 +7791,11 @@
         <v>5000</v>
       </c>
       <c r="H16" s="1">
-        <f>IF(G16&gt;=$D$2,-$A$2*$C$2*$B$2/G16,2*PI()/3*$E$2*$B$2*$A$2*G16^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-745751788853.30127</v>
       </c>
       <c r="I16">
-        <f>IF(G16&gt;=$D$2, -$A$2*$B$2*$C$2/G16^2,-4*PI()/3*$E$2*$B$2*$A$2*G16)</f>
+        <f t="shared" si="1"/>
         <v>-77065215.332953662</v>
       </c>
     </row>
@@ -5157,11 +7804,11 @@
         <v>4500</v>
       </c>
       <c r="H17" s="1">
-        <f>IF(G17&gt;=$D$2,-$A$2*$C$2*$B$2/G17,2*PI()/3*$E$2*$B$2*$A$2*G17^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-782357766136.45422</v>
       </c>
       <c r="I17">
-        <f>IF(G17&gt;=$D$2, -$A$2*$B$2*$C$2/G17^2,-4*PI()/3*$E$2*$B$2*$A$2*G17)</f>
+        <f t="shared" si="1"/>
         <v>-69358693.799658298</v>
       </c>
     </row>
@@ -5170,11 +7817,11 @@
         <v>4000</v>
       </c>
       <c r="H18" s="1">
-        <f>IF(G18&gt;=$D$2,-$A$2*$C$2*$B$2/G18,2*PI()/3*$E$2*$B$2*$A$2*G18^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-815110482652.95959</v>
       </c>
       <c r="I18">
-        <f>IF(G18&gt;=$D$2, -$A$2*$B$2*$C$2/G18^2,-4*PI()/3*$E$2*$B$2*$A$2*G18)</f>
+        <f t="shared" si="1"/>
         <v>-61652172.266362928</v>
       </c>
     </row>
@@ -5183,11 +7830,11 @@
         <v>3500</v>
       </c>
       <c r="H19" s="1">
-        <f>IF(G19&gt;=$D$2,-$A$2*$C$2*$B$2/G19,2*PI()/3*$E$2*$B$2*$A$2*G19^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-844009938402.81714</v>
       </c>
       <c r="I19">
-        <f>IF(G19&gt;=$D$2, -$A$2*$B$2*$C$2/G19^2,-4*PI()/3*$E$2*$B$2*$A$2*G19)</f>
+        <f t="shared" si="1"/>
         <v>-53945650.733067557</v>
       </c>
     </row>
@@ -5196,11 +7843,11 @@
         <v>3000</v>
       </c>
       <c r="H20" s="1">
-        <f>IF(G20&gt;=$D$2,-$A$2*$C$2*$B$2/G20,2*PI()/3*$E$2*$B$2*$A$2*G20^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-869056133386.0271</v>
       </c>
       <c r="I20">
-        <f>IF(G20&gt;=$D$2, -$A$2*$B$2*$C$2/G20^2,-4*PI()/3*$E$2*$B$2*$A$2*G20)</f>
+        <f t="shared" si="1"/>
         <v>-46239129.199772194</v>
       </c>
     </row>
@@ -5209,11 +7856,11 @@
         <v>2500</v>
       </c>
       <c r="H21" s="1">
-        <f>IF(G21&gt;=$D$2,-$A$2*$C$2*$B$2/G21,2*PI()/3*$E$2*$B$2*$A$2*G21^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-890249067602.58936</v>
       </c>
       <c r="I21">
-        <f>IF(G21&gt;=$D$2, -$A$2*$B$2*$C$2/G21^2,-4*PI()/3*$E$2*$B$2*$A$2*G21)</f>
+        <f t="shared" si="1"/>
         <v>-38532607.666476831</v>
       </c>
     </row>
@@ -5222,11 +7869,11 @@
         <v>2000</v>
       </c>
       <c r="H22" s="1">
-        <f>IF(G22&gt;=$D$2,-$A$2*$C$2*$B$2/G22,2*PI()/3*$E$2*$B$2*$A$2*G22^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-907588741052.50391</v>
       </c>
       <c r="I22">
-        <f>IF(G22&gt;=$D$2, -$A$2*$B$2*$C$2/G22^2,-4*PI()/3*$E$2*$B$2*$A$2*G22)</f>
+        <f t="shared" si="1"/>
         <v>-30826086.133181464</v>
       </c>
     </row>
@@ -5235,11 +7882,11 @@
         <v>1500</v>
       </c>
       <c r="H23" s="1">
-        <f>IF(G23&gt;=$D$2,-$A$2*$C$2*$B$2/G23,2*PI()/3*$E$2*$B$2*$A$2*G23^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-921075153735.77087</v>
       </c>
       <c r="I23">
-        <f>IF(G23&gt;=$D$2, -$A$2*$B$2*$C$2/G23^2,-4*PI()/3*$E$2*$B$2*$A$2*G23)</f>
+        <f t="shared" si="1"/>
         <v>-23119564.599886097</v>
       </c>
     </row>
@@ -5248,11 +7895,11 @@
         <v>1000</v>
       </c>
       <c r="H24" s="1">
-        <f>IF(G24&gt;=$D$2,-$A$2*$C$2*$B$2/G24,2*PI()/3*$E$2*$B$2*$A$2*G24^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-930708305652.39001</v>
       </c>
       <c r="I24">
-        <f>IF(G24&gt;=$D$2, -$A$2*$B$2*$C$2/G24^2,-4*PI()/3*$E$2*$B$2*$A$2*G24)</f>
+        <f t="shared" si="1"/>
         <v>-15413043.066590732</v>
       </c>
     </row>
@@ -5261,12 +7908,690 @@
         <v>500</v>
       </c>
       <c r="H25" s="1">
-        <f>IF(G25&gt;=$D$2,-$A$2*$C$2*$B$2/G25,2*PI()/3*$E$2*$B$2*$A$2*G25^2-2*PI()*$A$2*$B$2*$E$2*$D$2^2)</f>
+        <f t="shared" si="0"/>
         <v>-936488196802.36157</v>
       </c>
       <c r="I25">
-        <f>IF(G25&gt;=$D$2, -$A$2*$B$2*$C$2/G25^2,-4*PI()/3*$E$2*$B$2*$A$2*G25)</f>
+        <f t="shared" si="1"/>
         <v>-7706521.533295366</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <f>4-C2^2</f>
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <f>-A2</f>
+        <v>-4</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>-C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <f t="shared" ref="A3:A39" si="0">4-C3^2</f>
+        <v>3.99</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B39" si="1">-A3</f>
+        <v>-3.99</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D39" si="2">-C3</f>
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <f t="shared" si="0"/>
+        <v>3.96</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>-3.96</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>3.91</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>-3.91</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>3.84</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>-3.84</v>
+      </c>
+      <c r="C6">
+        <v>0.4</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>3.75</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>-3.75</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>3.64</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>-3.64</v>
+      </c>
+      <c r="C8">
+        <v>0.6</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>3.5100000000000002</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>-3.5100000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>3.36</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>-3.36</v>
+      </c>
+      <c r="C10">
+        <v>0.8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>3.19</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>-3.19</v>
+      </c>
+      <c r="C11">
+        <v>0.9</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>2.79</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>-2.79</v>
+      </c>
+      <c r="C13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>2.56</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>-2.56</v>
+      </c>
+      <c r="C14">
+        <v>1.2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>2.3099999999999996</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>-2.3099999999999996</v>
+      </c>
+      <c r="C15">
+        <v>1.3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>-2.04</v>
+      </c>
+      <c r="C16">
+        <v>1.4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>1.75</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>-1.75</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>1.4399999999999995</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>-1.4399999999999995</v>
+      </c>
+      <c r="C18">
+        <v>1.6</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1.1100000000000003</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>-1.1100000000000003</v>
+      </c>
+      <c r="C19">
+        <v>1.7</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>0.75999999999999979</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>-0.75999999999999979</v>
+      </c>
+      <c r="C20">
+        <v>1.8</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>0.39000000000000012</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>-0.39000000000000012</v>
+      </c>
+      <c r="C21">
+        <v>1.9</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>-0.41000000000000014</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>0.41000000000000014</v>
+      </c>
+      <c r="C23">
+        <v>2.1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>-0.84000000000000075</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0.84000000000000075</v>
+      </c>
+      <c r="C24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>-1.2899999999999991</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1.2899999999999991</v>
+      </c>
+      <c r="C25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>-1.7599999999999998</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>1.7599999999999998</v>
+      </c>
+      <c r="C26">
+        <v>2.4</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>-2.25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="C27">
+        <v>2.5</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>-2.7600000000000007</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>2.7600000000000007</v>
+      </c>
+      <c r="C28">
+        <v>2.6</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>-3.2900000000000009</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>3.2900000000000009</v>
+      </c>
+      <c r="C29">
+        <v>2.7</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>-3.839999999999999</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>3.839999999999999</v>
+      </c>
+      <c r="C30">
+        <v>2.8</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>-2.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>-4.41</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="1"/>
+        <v>4.41</v>
+      </c>
+      <c r="C31">
+        <v>2.9</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>-5.6100000000000012</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="1"/>
+        <v>5.6100000000000012</v>
+      </c>
+      <c r="C33">
+        <v>3.1</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>-6.240000000000002</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>6.240000000000002</v>
+      </c>
+      <c r="C34">
+        <v>3.2</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>-3.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>-6.8899999999999988</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>6.8899999999999988</v>
+      </c>
+      <c r="C35">
+        <v>3.3</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>-7.5599999999999987</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>7.5599999999999987</v>
+      </c>
+      <c r="C36">
+        <v>3.4</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>-8.25</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>8.25</v>
+      </c>
+      <c r="C37">
+        <v>3.5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>-8.9600000000000009</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="C38">
+        <v>3.6</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>-9.6900000000000013</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>9.6900000000000013</v>
+      </c>
+      <c r="C39">
+        <v>3.7</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>-3.7</v>
       </c>
     </row>
   </sheetData>
